--- a/data/pca/factorExposure/factorExposure_2011-08-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.02693935033908997</v>
+        <v>0.02038910515554259</v>
       </c>
       <c r="C2">
-        <v>0.01539261326613627</v>
+        <v>0.008584773758190205</v>
       </c>
       <c r="D2">
-        <v>-0.03545350375447166</v>
+        <v>0.02654281269085367</v>
       </c>
       <c r="E2">
-        <v>-0.069801321407972</v>
+        <v>0.03569605078727001</v>
       </c>
       <c r="F2">
-        <v>0.03497763753004102</v>
+        <v>0.02037279566963003</v>
       </c>
       <c r="G2">
-        <v>-0.04872740411927708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01691427659406268</v>
+      </c>
+      <c r="H2">
+        <v>0.0249459392264221</v>
+      </c>
+      <c r="I2">
+        <v>0.03630782956184695</v>
+      </c>
+      <c r="J2">
+        <v>-0.0004870302642241843</v>
+      </c>
+      <c r="K2">
+        <v>0.07118869574772155</v>
+      </c>
+      <c r="L2">
+        <v>-0.01473370330946891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0694085124633603</v>
+        <v>0.09279270110216663</v>
       </c>
       <c r="C4">
-        <v>0.05349630213631702</v>
+        <v>0.06213470407250632</v>
       </c>
       <c r="D4">
-        <v>-0.03845095839048863</v>
+        <v>0.01242525357497394</v>
       </c>
       <c r="E4">
-        <v>-0.02038386692812878</v>
+        <v>0.05058529550166202</v>
       </c>
       <c r="F4">
-        <v>0.04136286183673039</v>
+        <v>0.09581632036399465</v>
       </c>
       <c r="G4">
-        <v>0.02964606049010729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03349169246114263</v>
+      </c>
+      <c r="H4">
+        <v>0.01990478957004119</v>
+      </c>
+      <c r="I4">
+        <v>-0.07390246001999458</v>
+      </c>
+      <c r="J4">
+        <v>0.01662201455362838</v>
+      </c>
+      <c r="K4">
+        <v>-0.04225955108752625</v>
+      </c>
+      <c r="L4">
+        <v>0.05029845499827713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1268607902714889</v>
+        <v>0.130130519353665</v>
       </c>
       <c r="C6">
-        <v>0.02695114035904558</v>
+        <v>0.03326310322195197</v>
       </c>
       <c r="D6">
-        <v>-0.04829287672839575</v>
+        <v>0.04541546172092872</v>
       </c>
       <c r="E6">
-        <v>-0.07478286014466971</v>
+        <v>0.01318475587645302</v>
       </c>
       <c r="F6">
-        <v>0.04962551455110523</v>
+        <v>0.07216970774806167</v>
       </c>
       <c r="G6">
-        <v>0.03385013909464624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04123879893645613</v>
+      </c>
+      <c r="H6">
+        <v>-0.1606758831222438</v>
+      </c>
+      <c r="I6">
+        <v>-0.05213115700828815</v>
+      </c>
+      <c r="J6">
+        <v>0.4252812267541578</v>
+      </c>
+      <c r="K6">
+        <v>-0.1763900997294598</v>
+      </c>
+      <c r="L6">
+        <v>-0.05505991249520756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.0666560944629235</v>
+        <v>0.06728961405196399</v>
       </c>
       <c r="C7">
-        <v>0.03508366636170279</v>
+        <v>0.06171203936072658</v>
       </c>
       <c r="D7">
-        <v>-0.03957805097408502</v>
+        <v>0.03489148066498087</v>
       </c>
       <c r="E7">
-        <v>-0.05510322124647926</v>
+        <v>0.03680657889706049</v>
       </c>
       <c r="F7">
-        <v>0.02507429237761574</v>
+        <v>0.03327445863741374</v>
       </c>
       <c r="G7">
-        <v>0.05511753856664395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006428216543410826</v>
+      </c>
+      <c r="H7">
+        <v>-0.00139759077040278</v>
+      </c>
+      <c r="I7">
+        <v>-0.05020699097205111</v>
+      </c>
+      <c r="J7">
+        <v>-0.06850340091431315</v>
+      </c>
+      <c r="K7">
+        <v>0.004229630195119893</v>
+      </c>
+      <c r="L7">
+        <v>0.06038451065641245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.02852652621404836</v>
+        <v>0.03625817820757926</v>
       </c>
       <c r="C8">
-        <v>0.02846218109447229</v>
+        <v>0.01298099486599798</v>
       </c>
       <c r="D8">
-        <v>-0.004301338893623689</v>
+        <v>-0.002829052044945651</v>
       </c>
       <c r="E8">
-        <v>-0.04526046721660319</v>
+        <v>0.07064007492818278</v>
       </c>
       <c r="F8">
-        <v>0.07098571322084285</v>
+        <v>0.05857808173227642</v>
       </c>
       <c r="G8">
-        <v>-0.008877197815780592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05327833013545386</v>
+      </c>
+      <c r="H8">
+        <v>0.0008364089150689798</v>
+      </c>
+      <c r="I8">
+        <v>-0.08617711651210615</v>
+      </c>
+      <c r="J8">
+        <v>0.009333551212505455</v>
+      </c>
+      <c r="K8">
+        <v>-0.06059946795095527</v>
+      </c>
+      <c r="L8">
+        <v>0.03628631438642199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07287788526719932</v>
+        <v>0.08351338156396272</v>
       </c>
       <c r="C9">
-        <v>0.0629365128749146</v>
+        <v>0.05881895106759079</v>
       </c>
       <c r="D9">
-        <v>-0.04069726678169542</v>
+        <v>0.01539211150348165</v>
       </c>
       <c r="E9">
-        <v>-0.02431310179475614</v>
+        <v>0.037218488354163</v>
       </c>
       <c r="F9">
-        <v>0.03068725073101951</v>
+        <v>0.08223220901202739</v>
       </c>
       <c r="G9">
-        <v>0.007561295536614994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04485493656347948</v>
+      </c>
+      <c r="H9">
+        <v>0.01472506193056505</v>
+      </c>
+      <c r="I9">
+        <v>-0.0869976227040732</v>
+      </c>
+      <c r="J9">
+        <v>0.004760962773962484</v>
+      </c>
+      <c r="K9">
+        <v>-0.02399787447046998</v>
+      </c>
+      <c r="L9">
+        <v>0.01923877702589353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.03881408507682078</v>
+        <v>0.09567301450858887</v>
       </c>
       <c r="C10">
-        <v>-0.1340215757482291</v>
+        <v>-0.1742403148061126</v>
       </c>
       <c r="D10">
-        <v>0.02961406380460777</v>
+        <v>0.006346457568615511</v>
       </c>
       <c r="E10">
-        <v>-0.06876735815724747</v>
+        <v>0.0562486435079842</v>
       </c>
       <c r="F10">
-        <v>0.03254307869556715</v>
+        <v>0.01227113267648806</v>
       </c>
       <c r="G10">
-        <v>0.03173185981771866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.04033036480107685</v>
+      </c>
+      <c r="H10">
+        <v>-0.02141752466730348</v>
+      </c>
+      <c r="I10">
+        <v>0.00925750070346072</v>
+      </c>
+      <c r="J10">
+        <v>-0.041373775464906</v>
+      </c>
+      <c r="K10">
+        <v>0.04025426863328439</v>
+      </c>
+      <c r="L10">
+        <v>0.02818255723682935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06546028935549469</v>
+        <v>0.06765942129019174</v>
       </c>
       <c r="C11">
-        <v>0.06352721190384256</v>
+        <v>0.05885191615478063</v>
       </c>
       <c r="D11">
-        <v>-0.04553868442753119</v>
+        <v>0.03022309557549263</v>
       </c>
       <c r="E11">
-        <v>-0.03473202455825271</v>
+        <v>0.02339066088034663</v>
       </c>
       <c r="F11">
-        <v>0.001682278914020328</v>
+        <v>0.06255392614424927</v>
       </c>
       <c r="G11">
-        <v>-0.0338502320279533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.06878871362042953</v>
+      </c>
+      <c r="H11">
+        <v>0.01345872468579269</v>
+      </c>
+      <c r="I11">
+        <v>-0.07841911863675921</v>
+      </c>
+      <c r="J11">
+        <v>-0.08213959973257656</v>
+      </c>
+      <c r="K11">
+        <v>0.06375416470033297</v>
+      </c>
+      <c r="L11">
+        <v>-0.02870489473324423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06047365221066981</v>
+        <v>0.06772889763514242</v>
       </c>
       <c r="C12">
-        <v>0.03779808953292828</v>
+        <v>0.04919364539530598</v>
       </c>
       <c r="D12">
-        <v>-0.02558007276514311</v>
+        <v>0.01040490334391509</v>
       </c>
       <c r="E12">
-        <v>-0.01901120181517055</v>
+        <v>0.02189667356724594</v>
       </c>
       <c r="F12">
-        <v>0.01302465891482695</v>
+        <v>0.0521740802154177</v>
       </c>
       <c r="G12">
-        <v>0.02438484081133524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.06804500686942486</v>
+      </c>
+      <c r="H12">
+        <v>0.01066354854933135</v>
+      </c>
+      <c r="I12">
+        <v>-0.09618577167452755</v>
+      </c>
+      <c r="J12">
+        <v>-0.06029932980064654</v>
+      </c>
+      <c r="K12">
+        <v>0.0675112964993949</v>
+      </c>
+      <c r="L12">
+        <v>0.009119492195661532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.06882111229621683</v>
+        <v>0.05914114412504699</v>
       </c>
       <c r="C13">
-        <v>0.03005082290591742</v>
+        <v>0.03995678947024966</v>
       </c>
       <c r="D13">
-        <v>0.008671646068592258</v>
+        <v>-0.01682788443997304</v>
       </c>
       <c r="E13">
-        <v>-0.02167963239789806</v>
+        <v>0.03578310248352447</v>
       </c>
       <c r="F13">
-        <v>0.02879602724629229</v>
+        <v>0.006855932928493644</v>
       </c>
       <c r="G13">
-        <v>-0.02058641950226857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.03819344292069451</v>
+      </c>
+      <c r="H13">
+        <v>0.01748385769860906</v>
+      </c>
+      <c r="I13">
+        <v>-0.05460159976329318</v>
+      </c>
+      <c r="J13">
+        <v>-0.01260835307580343</v>
+      </c>
+      <c r="K13">
+        <v>-0.05154829324076889</v>
+      </c>
+      <c r="L13">
+        <v>0.03562434229510977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.03352301049429392</v>
+        <v>0.04334587551152944</v>
       </c>
       <c r="C14">
-        <v>0.003298783215752743</v>
+        <v>0.01636131331484</v>
       </c>
       <c r="D14">
-        <v>-0.04059447357184345</v>
+        <v>0.01797158517479859</v>
       </c>
       <c r="E14">
-        <v>-0.008592022853957737</v>
+        <v>0.008105174281668587</v>
       </c>
       <c r="F14">
-        <v>0.015081390244789</v>
+        <v>0.05911067111624144</v>
       </c>
       <c r="G14">
-        <v>0.01012588359047967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02339605090206687</v>
+      </c>
+      <c r="H14">
+        <v>0.04416218047710767</v>
+      </c>
+      <c r="I14">
+        <v>-0.06675452115543888</v>
+      </c>
+      <c r="J14">
+        <v>0.0034213992669784</v>
+      </c>
+      <c r="K14">
+        <v>-0.0466490515121166</v>
+      </c>
+      <c r="L14">
+        <v>0.0221663761931322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.04608773118712321</v>
+        <v>0.03800929653139003</v>
       </c>
       <c r="C15">
-        <v>0.01002426534391785</v>
+        <v>0.01442936989312153</v>
       </c>
       <c r="D15">
-        <v>0.0124259768746813</v>
+        <v>-0.0223078710941229</v>
       </c>
       <c r="E15">
-        <v>-0.001066258252668093</v>
+        <v>0.005825631104731038</v>
       </c>
       <c r="F15">
-        <v>0.02545932544057311</v>
+        <v>0.01306841925340433</v>
       </c>
       <c r="G15">
-        <v>0.006478231543283223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01307025232872908</v>
+      </c>
+      <c r="H15">
+        <v>0.001034073181754581</v>
+      </c>
+      <c r="I15">
+        <v>-0.03965913377450243</v>
+      </c>
+      <c r="J15">
+        <v>0.003711847531742361</v>
+      </c>
+      <c r="K15">
+        <v>-0.06236611729554566</v>
+      </c>
+      <c r="L15">
+        <v>0.02903587904657026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.05242434199829694</v>
+        <v>0.06901201548534719</v>
       </c>
       <c r="C16">
-        <v>0.05945959301900339</v>
+        <v>0.06404309609336375</v>
       </c>
       <c r="D16">
-        <v>-0.03603399252050169</v>
+        <v>0.01727570441830804</v>
       </c>
       <c r="E16">
-        <v>-0.01377068211311576</v>
+        <v>0.02754991207704195</v>
       </c>
       <c r="F16">
-        <v>0.02609436081168527</v>
+        <v>0.07304370754162808</v>
       </c>
       <c r="G16">
-        <v>0.01026751238172162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.04492005179223023</v>
+      </c>
+      <c r="H16">
+        <v>0.0119879518444519</v>
+      </c>
+      <c r="I16">
+        <v>-0.08494425448167339</v>
+      </c>
+      <c r="J16">
+        <v>-0.07551769085159919</v>
+      </c>
+      <c r="K16">
+        <v>0.04716782941239857</v>
+      </c>
+      <c r="L16">
+        <v>-0.01464926808587473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05335802729082114</v>
+        <v>0.05085726690673044</v>
       </c>
       <c r="C20">
-        <v>0.0470116038095308</v>
+        <v>0.0382101513640561</v>
       </c>
       <c r="D20">
-        <v>-0.0005354157865714766</v>
+        <v>0.01372466436926132</v>
       </c>
       <c r="E20">
-        <v>-0.02701230079983541</v>
+        <v>0.02270334704978479</v>
       </c>
       <c r="F20">
-        <v>0.01363347519386599</v>
+        <v>0.01357039235470317</v>
       </c>
       <c r="G20">
-        <v>0.005137731057160631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05430418086835068</v>
+      </c>
+      <c r="H20">
+        <v>0.03085718365805792</v>
+      </c>
+      <c r="I20">
+        <v>-0.1123579873152794</v>
+      </c>
+      <c r="J20">
+        <v>-0.01873906608931077</v>
+      </c>
+      <c r="K20">
+        <v>0.0150544675356483</v>
+      </c>
+      <c r="L20">
+        <v>0.04869909057135879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02970292543532429</v>
+        <v>0.02581762371115999</v>
       </c>
       <c r="C21">
-        <v>0.03311600735164049</v>
+        <v>0.01867073874927274</v>
       </c>
       <c r="D21">
-        <v>0.052452135044995</v>
+        <v>-0.03440096390042511</v>
       </c>
       <c r="E21">
-        <v>-0.007657166364048822</v>
+        <v>0.03253876820608564</v>
       </c>
       <c r="F21">
-        <v>0.05618221669143901</v>
+        <v>0.006251208670175265</v>
       </c>
       <c r="G21">
-        <v>0.0321354982861185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02334059618010551</v>
+      </c>
+      <c r="H21">
+        <v>-0.0793231916539661</v>
+      </c>
+      <c r="I21">
+        <v>-0.06549253528915047</v>
+      </c>
+      <c r="J21">
+        <v>0.004847433968056634</v>
+      </c>
+      <c r="K21">
+        <v>-0.07561967946576439</v>
+      </c>
+      <c r="L21">
+        <v>0.0325108712222591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.09407146497919348</v>
+        <v>0.07726877939829402</v>
       </c>
       <c r="C22">
-        <v>0.1427096067528479</v>
+        <v>0.09730011724061911</v>
       </c>
       <c r="D22">
-        <v>0.1715708251119426</v>
+        <v>-0.467821297682383</v>
       </c>
       <c r="E22">
-        <v>0.05823943809923582</v>
+        <v>0.2917962175826373</v>
       </c>
       <c r="F22">
-        <v>0.3790548778582234</v>
+        <v>0.1140750988155381</v>
       </c>
       <c r="G22">
-        <v>0.2028342073094611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.3122111403950512</v>
+      </c>
+      <c r="H22">
+        <v>-0.01736542946164879</v>
+      </c>
+      <c r="I22">
+        <v>0.1928994865114107</v>
+      </c>
+      <c r="J22">
+        <v>0.04554669347955231</v>
+      </c>
+      <c r="K22">
+        <v>0.03097930824385333</v>
+      </c>
+      <c r="L22">
+        <v>0.06106009069501836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.09469390912628439</v>
+        <v>0.07795828270982616</v>
       </c>
       <c r="C23">
-        <v>0.1414878656196218</v>
+        <v>0.09742583941289142</v>
       </c>
       <c r="D23">
-        <v>0.1717183533133866</v>
+        <v>-0.469199618128007</v>
       </c>
       <c r="E23">
-        <v>0.05740624637501047</v>
+        <v>0.2939639099023487</v>
       </c>
       <c r="F23">
-        <v>0.3802122467808178</v>
+        <v>0.117251415182358</v>
       </c>
       <c r="G23">
-        <v>0.2005256572709909</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.3087401398041896</v>
+      </c>
+      <c r="H23">
+        <v>-0.01693947418577753</v>
+      </c>
+      <c r="I23">
+        <v>0.1933338162588</v>
+      </c>
+      <c r="J23">
+        <v>0.05037463741195938</v>
+      </c>
+      <c r="K23">
+        <v>0.03013547458880936</v>
+      </c>
+      <c r="L23">
+        <v>0.05778532032827677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.07200263235736161</v>
+        <v>0.07556722553471751</v>
       </c>
       <c r="C24">
-        <v>0.05569488934423922</v>
+        <v>0.0619483351021102</v>
       </c>
       <c r="D24">
-        <v>-0.03035422046726966</v>
+        <v>0.01187365614084513</v>
       </c>
       <c r="E24">
-        <v>-0.03641338030430843</v>
+        <v>0.03511540324499271</v>
       </c>
       <c r="F24">
-        <v>0.03761303588833439</v>
+        <v>0.07103238052160249</v>
       </c>
       <c r="G24">
-        <v>-0.01872223908290304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.06362009257431941</v>
+      </c>
+      <c r="H24">
+        <v>0.006225189125747372</v>
+      </c>
+      <c r="I24">
+        <v>-0.08105624942063236</v>
+      </c>
+      <c r="J24">
+        <v>-0.04891980888240983</v>
+      </c>
+      <c r="K24">
+        <v>0.05603157100297108</v>
+      </c>
+      <c r="L24">
+        <v>-0.008382977554627869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.0660664088003583</v>
+        <v>0.07207073139784423</v>
       </c>
       <c r="C25">
-        <v>0.03212533567141466</v>
+        <v>0.03940905975333883</v>
       </c>
       <c r="D25">
-        <v>-0.03076046733622557</v>
+        <v>0.0194996241063097</v>
       </c>
       <c r="E25">
-        <v>-0.04332564062066592</v>
+        <v>0.03445888506315666</v>
       </c>
       <c r="F25">
-        <v>0.05043298832078277</v>
+        <v>0.07474341871686503</v>
       </c>
       <c r="G25">
-        <v>-0.0166492803808832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.05745049417610649</v>
+      </c>
+      <c r="H25">
+        <v>0.02887020902587492</v>
+      </c>
+      <c r="I25">
+        <v>-0.09338657145984861</v>
+      </c>
+      <c r="J25">
+        <v>-0.04692373521392545</v>
+      </c>
+      <c r="K25">
+        <v>0.0815259121910037</v>
+      </c>
+      <c r="L25">
+        <v>-0.02529609352320911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.04832285938788258</v>
+        <v>0.04315518064712892</v>
       </c>
       <c r="C26">
-        <v>0.0253295745010431</v>
+        <v>0.02338308177218861</v>
       </c>
       <c r="D26">
-        <v>-0.002171476989660269</v>
+        <v>-0.01884065290958954</v>
       </c>
       <c r="E26">
-        <v>-0.03668565539037776</v>
+        <v>0.01650582349752203</v>
       </c>
       <c r="F26">
-        <v>-0.01163540249610873</v>
+        <v>0.006724420224716316</v>
       </c>
       <c r="G26">
-        <v>0.02377586212349891</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02636315285869528</v>
+      </c>
+      <c r="H26">
+        <v>0.009239072234308685</v>
+      </c>
+      <c r="I26">
+        <v>-0.05339323957891712</v>
+      </c>
+      <c r="J26">
+        <v>-0.02838578141950138</v>
+      </c>
+      <c r="K26">
+        <v>-0.1123666312283027</v>
+      </c>
+      <c r="L26">
+        <v>0.02770131039488247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.06981917899197089</v>
+        <v>0.116981366212745</v>
       </c>
       <c r="C28">
-        <v>-0.3014811044806222</v>
+        <v>-0.2982623121951693</v>
       </c>
       <c r="D28">
-        <v>0.03614072444295977</v>
+        <v>-0.006034908677709605</v>
       </c>
       <c r="E28">
-        <v>-0.07849119391282723</v>
+        <v>0.03856122063026264</v>
       </c>
       <c r="F28">
-        <v>0.0104871181704504</v>
+        <v>-0.002652823803574768</v>
       </c>
       <c r="G28">
-        <v>0.05992522699958375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.008553871883384141</v>
+      </c>
+      <c r="H28">
+        <v>-0.03014642020296157</v>
+      </c>
+      <c r="I28">
+        <v>0.0195724906907293</v>
+      </c>
+      <c r="J28">
+        <v>-0.01921106214996536</v>
+      </c>
+      <c r="K28">
+        <v>-0.05327301447493013</v>
+      </c>
+      <c r="L28">
+        <v>-0.001778630743858147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.04821170976659447</v>
+        <v>0.04700953054512861</v>
       </c>
       <c r="C29">
-        <v>0.002674674820671643</v>
+        <v>0.01878919049179046</v>
       </c>
       <c r="D29">
-        <v>-0.01875744029378518</v>
+        <v>0.006338716859682247</v>
       </c>
       <c r="E29">
-        <v>-0.01126292208645853</v>
+        <v>0.02187592189268434</v>
       </c>
       <c r="F29">
-        <v>0.03819934731570575</v>
+        <v>0.04331708322770544</v>
       </c>
       <c r="G29">
-        <v>0.009236851613964108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0243790833580429</v>
+      </c>
+      <c r="H29">
+        <v>0.04579438381149835</v>
+      </c>
+      <c r="I29">
+        <v>-0.05050744854470095</v>
+      </c>
+      <c r="J29">
+        <v>0.002793071291056245</v>
+      </c>
+      <c r="K29">
+        <v>-0.02890321074003614</v>
+      </c>
+      <c r="L29">
+        <v>0.0173363324084069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1489502098927065</v>
+        <v>0.117553795194912</v>
       </c>
       <c r="C30">
-        <v>0.08927502067817536</v>
+        <v>0.07748661317274759</v>
       </c>
       <c r="D30">
-        <v>-0.05305677556220546</v>
+        <v>-0.02374957509789345</v>
       </c>
       <c r="E30">
-        <v>-0.07365639524850544</v>
+        <v>0.09727609231011344</v>
       </c>
       <c r="F30">
-        <v>0.07580155179616627</v>
+        <v>0.1059853787836388</v>
       </c>
       <c r="G30">
-        <v>0.053706756423072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.09940010755249921</v>
+      </c>
+      <c r="H30">
+        <v>-0.0259064878643149</v>
+      </c>
+      <c r="I30">
+        <v>-0.1749939518910484</v>
+      </c>
+      <c r="J30">
+        <v>0.0197594480855339</v>
+      </c>
+      <c r="K30">
+        <v>0.01194900194340063</v>
+      </c>
+      <c r="L30">
+        <v>0.4794167528755206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.04972805705689057</v>
+        <v>0.03851766134422174</v>
       </c>
       <c r="C31">
-        <v>0.01439559154682054</v>
+        <v>0.04110416955279112</v>
       </c>
       <c r="D31">
-        <v>-0.01835654290653613</v>
+        <v>-0.008425537615033649</v>
       </c>
       <c r="E31">
-        <v>0.003606495320861571</v>
+        <v>-0.004241169350874593</v>
       </c>
       <c r="F31">
-        <v>-0.003300494506613434</v>
+        <v>0.008642098165914264</v>
       </c>
       <c r="G31">
-        <v>0.01518840724733833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.002900218008521589</v>
+      </c>
+      <c r="H31">
+        <v>0.05286061409323733</v>
+      </c>
+      <c r="I31">
+        <v>-0.04934317084478185</v>
+      </c>
+      <c r="J31">
+        <v>0.007719229815331575</v>
+      </c>
+      <c r="K31">
+        <v>-0.005397516873278453</v>
+      </c>
+      <c r="L31">
+        <v>0.007759775913500598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.04072320434567835</v>
+        <v>0.05011116018438148</v>
       </c>
       <c r="C32">
-        <v>0.02712764784170359</v>
+        <v>0.005198095510323813</v>
       </c>
       <c r="D32">
-        <v>0.03134563321325436</v>
+        <v>-0.04541273394316683</v>
       </c>
       <c r="E32">
-        <v>0.01790812286931408</v>
+        <v>0.03300537742584403</v>
       </c>
       <c r="F32">
-        <v>0.06399684728242148</v>
+        <v>0.02884334388349151</v>
       </c>
       <c r="G32">
-        <v>0.0229604692128858</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.008061892170106324</v>
+      </c>
+      <c r="H32">
+        <v>0.008434225998481383</v>
+      </c>
+      <c r="I32">
+        <v>-0.009002308917910878</v>
+      </c>
+      <c r="J32">
+        <v>-0.04426530015106767</v>
+      </c>
+      <c r="K32">
+        <v>-0.08953187599928743</v>
+      </c>
+      <c r="L32">
+        <v>0.05406312562858204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.09484684924133972</v>
+        <v>0.09995551188918476</v>
       </c>
       <c r="C33">
-        <v>0.03521649319299934</v>
+        <v>0.05580546602995642</v>
       </c>
       <c r="D33">
-        <v>-0.04144061656710503</v>
+        <v>-0.007446823725314943</v>
       </c>
       <c r="E33">
-        <v>-0.01336783539980343</v>
+        <v>-0.005953485556690692</v>
       </c>
       <c r="F33">
-        <v>0.005494037654317888</v>
+        <v>0.05278063854600592</v>
       </c>
       <c r="G33">
-        <v>0.002237898923892933</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03281918313114656</v>
+      </c>
+      <c r="H33">
+        <v>0.04720549667903595</v>
+      </c>
+      <c r="I33">
+        <v>-0.06529636692713954</v>
+      </c>
+      <c r="J33">
+        <v>0.005681583365756694</v>
+      </c>
+      <c r="K33">
+        <v>-0.02885724900898004</v>
+      </c>
+      <c r="L33">
+        <v>0.007332665971981542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05977698370646038</v>
+        <v>0.06373737949269735</v>
       </c>
       <c r="C34">
-        <v>0.05933391673006655</v>
+        <v>0.05267416233836306</v>
       </c>
       <c r="D34">
-        <v>-0.02281029666172618</v>
+        <v>0.01590318405467289</v>
       </c>
       <c r="E34">
-        <v>-0.01942153262223886</v>
+        <v>0.01759356419972768</v>
       </c>
       <c r="F34">
-        <v>0.04636092160564513</v>
+        <v>0.05912538279978567</v>
       </c>
       <c r="G34">
-        <v>-0.008097930105870515</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.05565939238491602</v>
+      </c>
+      <c r="H34">
+        <v>0.02561149103293585</v>
+      </c>
+      <c r="I34">
+        <v>-0.08149443521122124</v>
+      </c>
+      <c r="J34">
+        <v>-0.04326255281109095</v>
+      </c>
+      <c r="K34">
+        <v>0.05843631394248285</v>
+      </c>
+      <c r="L34">
+        <v>-0.03771024638648592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.0399876578586974</v>
+        <v>0.03292893652193813</v>
       </c>
       <c r="C35">
-        <v>0.01424557968598504</v>
+        <v>0.02129262993321512</v>
       </c>
       <c r="D35">
-        <v>-0.005851765692194877</v>
+        <v>-0.00141454787122369</v>
       </c>
       <c r="E35">
-        <v>-0.0009038113536132191</v>
+        <v>-0.002132904385009768</v>
       </c>
       <c r="F35">
-        <v>0.013611783628239</v>
+        <v>0.01307397651839777</v>
       </c>
       <c r="G35">
-        <v>0.02531126921904601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.00156161227935274</v>
+      </c>
+      <c r="H35">
+        <v>0.02410494963619703</v>
+      </c>
+      <c r="I35">
+        <v>-0.07244473509749187</v>
+      </c>
+      <c r="J35">
+        <v>-0.02749588755463912</v>
+      </c>
+      <c r="K35">
+        <v>0.01662829098139313</v>
+      </c>
+      <c r="L35">
+        <v>0.03364637256483967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03044573935476303</v>
+        <v>0.03024135356089598</v>
       </c>
       <c r="C36">
-        <v>0.01387793567737301</v>
+        <v>0.01414989167389509</v>
       </c>
       <c r="D36">
-        <v>0.001032660652898898</v>
+        <v>-0.008341283312885346</v>
       </c>
       <c r="E36">
-        <v>-0.029476179308294</v>
+        <v>0.02805039737457191</v>
       </c>
       <c r="F36">
-        <v>0.02456138465469311</v>
+        <v>0.02270664937174816</v>
       </c>
       <c r="G36">
-        <v>0.00109017452587445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03326474593973205</v>
+      </c>
+      <c r="H36">
+        <v>0.01897857150453524</v>
+      </c>
+      <c r="I36">
+        <v>-0.06568833365487137</v>
+      </c>
+      <c r="J36">
+        <v>0.00179425313020959</v>
+      </c>
+      <c r="K36">
+        <v>-0.01882904320700915</v>
+      </c>
+      <c r="L36">
+        <v>0.006613502719800303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.0566424590398571</v>
+        <v>0.04397911574999236</v>
       </c>
       <c r="C38">
-        <v>0.03172083197697283</v>
+        <v>0.05035887370258239</v>
       </c>
       <c r="D38">
-        <v>0.01379081924156534</v>
+        <v>-0.01728361639735356</v>
       </c>
       <c r="E38">
-        <v>0.02267339130607478</v>
+        <v>0.01437996108708033</v>
       </c>
       <c r="F38">
-        <v>0.0713959128115151</v>
+        <v>-0.01105776760749094</v>
       </c>
       <c r="G38">
-        <v>-0.009228188183500012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01408473862279009</v>
+      </c>
+      <c r="H38">
+        <v>0.01237600056206937</v>
+      </c>
+      <c r="I38">
+        <v>0.1231172993035076</v>
+      </c>
+      <c r="J38">
+        <v>-0.0260830277417706</v>
+      </c>
+      <c r="K38">
+        <v>-0.08813850944233551</v>
+      </c>
+      <c r="L38">
+        <v>0.02886057669750613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.09048830601224166</v>
+        <v>0.09352042670410698</v>
       </c>
       <c r="C39">
-        <v>0.06242194776871481</v>
+        <v>0.06394516346871044</v>
       </c>
       <c r="D39">
-        <v>-0.05723098476632726</v>
+        <v>0.01029274789809084</v>
       </c>
       <c r="E39">
-        <v>-0.006942794600405078</v>
+        <v>0.02590038794087598</v>
       </c>
       <c r="F39">
-        <v>0.04322730768994867</v>
+        <v>0.07952635262153222</v>
       </c>
       <c r="G39">
-        <v>-0.007643207887780138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05429746636838938</v>
+      </c>
+      <c r="H39">
+        <v>0.0130310642768775</v>
+      </c>
+      <c r="I39">
+        <v>-0.09513621679570658</v>
+      </c>
+      <c r="J39">
+        <v>-0.1266574426848187</v>
+      </c>
+      <c r="K39">
+        <v>0.1017222534447362</v>
+      </c>
+      <c r="L39">
+        <v>0.1003952322307257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.08157521809483931</v>
+        <v>0.04751725207046047</v>
       </c>
       <c r="C40">
-        <v>0.04713996364683865</v>
+        <v>0.06673584967023834</v>
       </c>
       <c r="D40">
-        <v>0.01553179608320667</v>
+        <v>-0.07120669236153093</v>
       </c>
       <c r="E40">
-        <v>-0.009722194650006757</v>
+        <v>0.03866215339768763</v>
       </c>
       <c r="F40">
-        <v>0.2108067390285312</v>
+        <v>0.06219495257896211</v>
       </c>
       <c r="G40">
-        <v>0.0327436539374073</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1111336926786763</v>
+      </c>
+      <c r="H40">
+        <v>-0.05489388905364595</v>
+      </c>
+      <c r="I40">
+        <v>-0.04146253807076316</v>
+      </c>
+      <c r="J40">
+        <v>-0.09494996363108896</v>
+      </c>
+      <c r="K40">
+        <v>0.007195669765411413</v>
+      </c>
+      <c r="L40">
+        <v>0.07886110605542249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.05832304431044882</v>
+        <v>0.04312019002731677</v>
       </c>
       <c r="C41">
-        <v>0.05246235367343544</v>
+        <v>0.03934761926377651</v>
       </c>
       <c r="D41">
-        <v>-0.02191683409931445</v>
+        <v>0.01734676261516915</v>
       </c>
       <c r="E41">
-        <v>0.005619353137344001</v>
+        <v>-0.01484155804256504</v>
       </c>
       <c r="F41">
-        <v>0.007938045928046721</v>
+        <v>-0.002800558968878443</v>
       </c>
       <c r="G41">
-        <v>-0.00601887566143118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03272677620346309</v>
+      </c>
+      <c r="H41">
+        <v>0.0318131462945855</v>
+      </c>
+      <c r="I41">
+        <v>-0.0126676371968382</v>
+      </c>
+      <c r="J41">
+        <v>-0.03526138184761156</v>
+      </c>
+      <c r="K41">
+        <v>-0.01263172712922486</v>
+      </c>
+      <c r="L41">
+        <v>0.02709567187069022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.05898516957190088</v>
+        <v>0.05552980328551157</v>
       </c>
       <c r="C43">
-        <v>0.03310640633616355</v>
+        <v>0.04722928461901851</v>
       </c>
       <c r="D43">
-        <v>-0.01420896085410123</v>
+        <v>0.005394978595306611</v>
       </c>
       <c r="E43">
-        <v>-0.01728392170829421</v>
+        <v>0.01582236059307657</v>
       </c>
       <c r="F43">
-        <v>0.003283577910430649</v>
+        <v>0.009052812678453207</v>
       </c>
       <c r="G43">
-        <v>0.008441717281814956</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01507640924069291</v>
+      </c>
+      <c r="H43">
+        <v>0.05247340704395794</v>
+      </c>
+      <c r="I43">
+        <v>-0.01818124692233646</v>
+      </c>
+      <c r="J43">
+        <v>-0.0200724588004753</v>
+      </c>
+      <c r="K43">
+        <v>0.002108662712037451</v>
+      </c>
+      <c r="L43">
+        <v>-0.001450295694876407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.07100448285242095</v>
+        <v>0.08349157805570172</v>
       </c>
       <c r="C44">
-        <v>0.03506335697902856</v>
+        <v>0.05275519386875941</v>
       </c>
       <c r="D44">
-        <v>0.03795407071973615</v>
+        <v>-0.01439828054304955</v>
       </c>
       <c r="E44">
-        <v>-0.07900193090294043</v>
+        <v>0.1228244088045467</v>
       </c>
       <c r="F44">
-        <v>0.1270205532268668</v>
+        <v>0.06584782209650103</v>
       </c>
       <c r="G44">
-        <v>-0.006245766291594295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08242008610248695</v>
+      </c>
+      <c r="H44">
+        <v>0.04321136835352322</v>
+      </c>
+      <c r="I44">
+        <v>-0.1110155057116872</v>
+      </c>
+      <c r="J44">
+        <v>-0.05191231995318676</v>
+      </c>
+      <c r="K44">
+        <v>0.03861091177622117</v>
+      </c>
+      <c r="L44">
+        <v>-0.0149412553963367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.02722806292683433</v>
+        <v>0.04481729151461584</v>
       </c>
       <c r="C46">
-        <v>0.03108233143445165</v>
+        <v>0.03707952333507214</v>
       </c>
       <c r="D46">
-        <v>-0.004831388069361341</v>
+        <v>0.0007646944136032876</v>
       </c>
       <c r="E46">
-        <v>-0.01760344456808159</v>
+        <v>0.03171711044318525</v>
       </c>
       <c r="F46">
-        <v>0.05193062241156447</v>
+        <v>0.04453666391901591</v>
       </c>
       <c r="G46">
-        <v>-0.006864291787981897</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.006078325944218541</v>
+      </c>
+      <c r="H46">
+        <v>0.02147942241771877</v>
+      </c>
+      <c r="I46">
+        <v>-0.04976718435979749</v>
+      </c>
+      <c r="J46">
+        <v>-0.002083652212608974</v>
+      </c>
+      <c r="K46">
+        <v>-0.07389445113163957</v>
+      </c>
+      <c r="L46">
+        <v>0.006426398707714715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.03657036809107071</v>
+        <v>0.04568301845323696</v>
       </c>
       <c r="C47">
-        <v>-0.001955438529802999</v>
+        <v>0.02198162857822999</v>
       </c>
       <c r="D47">
-        <v>0.01541121437074754</v>
+        <v>-0.02341466615463884</v>
       </c>
       <c r="E47">
-        <v>-0.007870630138878005</v>
+        <v>0.01273746706945349</v>
       </c>
       <c r="F47">
-        <v>0.06255494024186933</v>
+        <v>0.02280703323968985</v>
       </c>
       <c r="G47">
-        <v>0.007598836883240038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.004294324425655297</v>
+      </c>
+      <c r="H47">
+        <v>0.03697884345705999</v>
+      </c>
+      <c r="I47">
+        <v>-0.03491571383150587</v>
+      </c>
+      <c r="J47">
+        <v>0.03722993695358332</v>
+      </c>
+      <c r="K47">
+        <v>0.007129139179283405</v>
+      </c>
+      <c r="L47">
+        <v>-0.002772733676966144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04346897915800978</v>
+        <v>0.04415708719211066</v>
       </c>
       <c r="C48">
-        <v>0.02623996398279292</v>
+        <v>0.01772727086246145</v>
       </c>
       <c r="D48">
-        <v>-0.0004294051951513928</v>
+        <v>-0.02323071485408429</v>
       </c>
       <c r="E48">
-        <v>-0.01824170417758852</v>
+        <v>0.02119905810682177</v>
       </c>
       <c r="F48">
-        <v>0.04804320335975353</v>
+        <v>0.02466998100978805</v>
       </c>
       <c r="G48">
-        <v>0.0235117483517936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01537996231581693</v>
+      </c>
+      <c r="H48">
+        <v>-0.008017113718405623</v>
+      </c>
+      <c r="I48">
+        <v>-0.07127905395780902</v>
+      </c>
+      <c r="J48">
+        <v>-0.003740628146848044</v>
+      </c>
+      <c r="K48">
+        <v>-0.003136887446313572</v>
+      </c>
+      <c r="L48">
+        <v>0.03336571278335102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.1609387120614716</v>
+        <v>0.2132423511537339</v>
       </c>
       <c r="C49">
-        <v>0.04898890475859138</v>
+        <v>0.04526432993160204</v>
       </c>
       <c r="D49">
-        <v>-0.1492467714443136</v>
+        <v>0.1711321663601574</v>
       </c>
       <c r="E49">
-        <v>-0.05000603008272758</v>
+        <v>-0.05723117216704972</v>
       </c>
       <c r="F49">
-        <v>-0.09368690247369373</v>
+        <v>0.01741954434471228</v>
       </c>
       <c r="G49">
-        <v>0.1195157998310449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2061176260854136</v>
+      </c>
+      <c r="H49">
+        <v>-0.1993336864896248</v>
+      </c>
+      <c r="I49">
+        <v>0.06009049703325692</v>
+      </c>
+      <c r="J49">
+        <v>-0.133855003986088</v>
+      </c>
+      <c r="K49">
+        <v>0.0993747466261007</v>
+      </c>
+      <c r="L49">
+        <v>-0.0924821902545281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05718633819607638</v>
+        <v>0.04712860305119549</v>
       </c>
       <c r="C50">
-        <v>0.02048411337573817</v>
+        <v>0.0396253242464808</v>
       </c>
       <c r="D50">
-        <v>-0.02205309141331478</v>
+        <v>-0.007666701054850859</v>
       </c>
       <c r="E50">
-        <v>0.002475650664148928</v>
+        <v>-0.007373070785960592</v>
       </c>
       <c r="F50">
-        <v>0.01936250671070481</v>
+        <v>0.03212387377700271</v>
       </c>
       <c r="G50">
-        <v>0.002528163672162245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01721139059937353</v>
+      </c>
+      <c r="H50">
+        <v>0.05613236642469496</v>
+      </c>
+      <c r="I50">
+        <v>-0.03253165027306093</v>
+      </c>
+      <c r="J50">
+        <v>0.03540255995942513</v>
+      </c>
+      <c r="K50">
+        <v>-0.01909194960260965</v>
+      </c>
+      <c r="L50">
+        <v>0.02568131218444755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.03762002829495176</v>
+        <v>0.03868194197925032</v>
       </c>
       <c r="C51">
-        <v>0.007712121553447594</v>
+        <v>0.007988789260338486</v>
       </c>
       <c r="D51">
-        <v>0.01051288304676342</v>
+        <v>0.003883336541662398</v>
       </c>
       <c r="E51">
-        <v>0.001265484122071443</v>
+        <v>0.01602049364979152</v>
       </c>
       <c r="F51">
-        <v>0.00876257112240731</v>
+        <v>-0.03810514401249909</v>
       </c>
       <c r="G51">
-        <v>-0.009471853380224486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.001583846541814595</v>
+      </c>
+      <c r="H51">
+        <v>-0.01128383185076527</v>
+      </c>
+      <c r="I51">
+        <v>0.008648474180436109</v>
+      </c>
+      <c r="J51">
+        <v>-0.01791003538768581</v>
+      </c>
+      <c r="K51">
+        <v>0.06077039507282435</v>
+      </c>
+      <c r="L51">
+        <v>-0.06242631880988001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1566683430314078</v>
+        <v>0.1544779043842688</v>
       </c>
       <c r="C53">
-        <v>-0.01162139933327606</v>
+        <v>0.03822212669370355</v>
       </c>
       <c r="D53">
-        <v>-0.08716663377814567</v>
+        <v>0.05814870090100181</v>
       </c>
       <c r="E53">
-        <v>-0.01624467293160393</v>
+        <v>-0.04034216665874524</v>
       </c>
       <c r="F53">
-        <v>-0.04228257788969818</v>
+        <v>0.006192261206579216</v>
       </c>
       <c r="G53">
-        <v>-0.187771542739673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03355597032260631</v>
+      </c>
+      <c r="H53">
+        <v>0.2384026267419508</v>
+      </c>
+      <c r="I53">
+        <v>0.09405189799427317</v>
+      </c>
+      <c r="J53">
+        <v>0.05572350090068368</v>
+      </c>
+      <c r="K53">
+        <v>-0.006612445833866439</v>
+      </c>
+      <c r="L53">
+        <v>-0.04199350828464775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.05920698103176959</v>
+        <v>0.05909366067577587</v>
       </c>
       <c r="C54">
-        <v>0.02741107818810159</v>
+        <v>0.0215338076182346</v>
       </c>
       <c r="D54">
-        <v>0.03163691959966892</v>
+        <v>-0.02581579570178807</v>
       </c>
       <c r="E54">
-        <v>-0.0392012790035256</v>
+        <v>0.04702024562769434</v>
       </c>
       <c r="F54">
-        <v>0.0458337979678872</v>
+        <v>0.04360078572541163</v>
       </c>
       <c r="G54">
-        <v>0.02663898594268246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.07918474223607244</v>
+      </c>
+      <c r="H54">
+        <v>0.01900878241223971</v>
+      </c>
+      <c r="I54">
+        <v>-0.1155162882022546</v>
+      </c>
+      <c r="J54">
+        <v>0.01584103798452829</v>
+      </c>
+      <c r="K54">
+        <v>-0.04945174573100846</v>
+      </c>
+      <c r="L54">
+        <v>0.04945775237459601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.08703718293549632</v>
+        <v>0.09036602226289255</v>
       </c>
       <c r="C55">
-        <v>-0.01215206999240484</v>
+        <v>0.03008507236722699</v>
       </c>
       <c r="D55">
-        <v>-0.0550827517436371</v>
+        <v>0.04710136591099527</v>
       </c>
       <c r="E55">
-        <v>-0.02489878319055051</v>
+        <v>-0.005795769024196143</v>
       </c>
       <c r="F55">
-        <v>0.02317893987596207</v>
+        <v>0.0296065345661264</v>
       </c>
       <c r="G55">
-        <v>-0.1471435593776764</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01774697114126123</v>
+      </c>
+      <c r="H55">
+        <v>0.1655971599882646</v>
+      </c>
+      <c r="I55">
+        <v>0.01599030976295845</v>
+      </c>
+      <c r="J55">
+        <v>0.02551337658393513</v>
+      </c>
+      <c r="K55">
+        <v>-0.0005662186656851677</v>
+      </c>
+      <c r="L55">
+        <v>-0.07305379841245431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1514575544516105</v>
+        <v>0.1460713688555187</v>
       </c>
       <c r="C56">
-        <v>-0.0195774021766065</v>
+        <v>0.05418548942466362</v>
       </c>
       <c r="D56">
-        <v>-0.1009220092126411</v>
+        <v>0.06053461109488838</v>
       </c>
       <c r="E56">
-        <v>-0.05396205549891728</v>
+        <v>-0.01677060116108831</v>
       </c>
       <c r="F56">
-        <v>-0.04533521602766444</v>
+        <v>0.01487137308502591</v>
       </c>
       <c r="G56">
-        <v>-0.1786809705459663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01431829800897361</v>
+      </c>
+      <c r="H56">
+        <v>0.2453281576675992</v>
+      </c>
+      <c r="I56">
+        <v>0.1185689111295482</v>
+      </c>
+      <c r="J56">
+        <v>0.04723284257048749</v>
+      </c>
+      <c r="K56">
+        <v>-0.004640334874956814</v>
+      </c>
+      <c r="L56">
+        <v>-0.01009287020829694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,884 +2866,1469 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.1112602874314556</v>
+        <v>0.06809298382746717</v>
       </c>
       <c r="C58">
-        <v>0.06676238540017812</v>
+        <v>0.04640179934601645</v>
       </c>
       <c r="D58">
-        <v>0.2950420055330647</v>
+        <v>-0.1532723852837823</v>
       </c>
       <c r="E58">
-        <v>-0.09481397355426127</v>
+        <v>0.1146238721917982</v>
       </c>
       <c r="F58">
-        <v>0.176909093690166</v>
+        <v>-0.2353574768306534</v>
       </c>
       <c r="G58">
-        <v>0.3063264897378346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.02584458541151324</v>
+      </c>
+      <c r="H58">
+        <v>-0.1225122075501138</v>
+      </c>
+      <c r="I58">
+        <v>-0.4319102653585705</v>
+      </c>
+      <c r="J58">
+        <v>0.1615999510044746</v>
+      </c>
+      <c r="K58">
+        <v>0.3982364072503564</v>
+      </c>
+      <c r="L58">
+        <v>0.03939895855524607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1896758115308861</v>
+        <v>0.2087809569300487</v>
       </c>
       <c r="C59">
-        <v>-0.4245537487282965</v>
+        <v>-0.321294256632494</v>
       </c>
       <c r="D59">
-        <v>0.06336014327458224</v>
+        <v>-0.00979138658449215</v>
       </c>
       <c r="E59">
-        <v>-0.09540679898310496</v>
+        <v>0.02105515787678431</v>
       </c>
       <c r="F59">
-        <v>0.06523065684643813</v>
+        <v>-0.04519562598098938</v>
       </c>
       <c r="G59">
-        <v>-0.05883063465086605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.04635762624770109</v>
+      </c>
+      <c r="H59">
+        <v>0.06803147171358409</v>
+      </c>
+      <c r="I59">
+        <v>0.06763719555274522</v>
+      </c>
+      <c r="J59">
+        <v>-0.03847117330090124</v>
+      </c>
+      <c r="K59">
+        <v>0.01033264836099776</v>
+      </c>
+      <c r="L59">
+        <v>-0.03448011436493235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2324804880028349</v>
+        <v>0.2435915201546138</v>
       </c>
       <c r="C60">
-        <v>0.02097925700274996</v>
+        <v>0.08318168309719333</v>
       </c>
       <c r="D60">
-        <v>-0.1169276153935911</v>
+        <v>0.1313042552760435</v>
       </c>
       <c r="E60">
-        <v>-0.08023703567377143</v>
+        <v>-0.02212655009479117</v>
       </c>
       <c r="F60">
-        <v>-0.009543772306501937</v>
+        <v>-0.002918943777118794</v>
       </c>
       <c r="G60">
-        <v>0.01572486187095177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05227434869331225</v>
+      </c>
+      <c r="H60">
+        <v>-0.08361747780893558</v>
+      </c>
+      <c r="I60">
+        <v>0.130292967750467</v>
+      </c>
+      <c r="J60">
+        <v>0.1382379554561004</v>
+      </c>
+      <c r="K60">
+        <v>0.03390007559787057</v>
+      </c>
+      <c r="L60">
+        <v>-0.07031628605066602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.07758510941586219</v>
+        <v>0.08512670312341283</v>
       </c>
       <c r="C61">
-        <v>0.03852524716655142</v>
+        <v>0.04794571049573285</v>
       </c>
       <c r="D61">
-        <v>-0.04783067020077769</v>
+        <v>0.02159436852984259</v>
       </c>
       <c r="E61">
-        <v>-0.0115627755314223</v>
+        <v>0.02418966118300097</v>
       </c>
       <c r="F61">
-        <v>0.01890098177696132</v>
+        <v>0.06335393869169309</v>
       </c>
       <c r="G61">
-        <v>0.0006010085865725558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.06040350914435768</v>
+      </c>
+      <c r="H61">
+        <v>0.05591869241584319</v>
+      </c>
+      <c r="I61">
+        <v>-0.05373739411352405</v>
+      </c>
+      <c r="J61">
+        <v>-0.07788345906457185</v>
+      </c>
+      <c r="K61">
+        <v>0.04133074406846576</v>
+      </c>
+      <c r="L61">
+        <v>0.04141235799655596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1588753919975987</v>
+        <v>0.1480076507729268</v>
       </c>
       <c r="C62">
-        <v>0.001355040355925721</v>
+        <v>0.05774208449921285</v>
       </c>
       <c r="D62">
-        <v>-0.07354313523746035</v>
+        <v>0.05123705190733061</v>
       </c>
       <c r="E62">
-        <v>0.001708304150467601</v>
+        <v>-0.0639700465638738</v>
       </c>
       <c r="F62">
-        <v>-0.09593463143650624</v>
+        <v>-2.855104113653061e-05</v>
       </c>
       <c r="G62">
-        <v>-0.1935222860675708</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.009261876330945667</v>
+      </c>
+      <c r="H62">
+        <v>0.213912398343383</v>
+      </c>
+      <c r="I62">
+        <v>0.08319753980812236</v>
+      </c>
+      <c r="J62">
+        <v>0.06946337381615299</v>
+      </c>
+      <c r="K62">
+        <v>-0.04782737949818554</v>
+      </c>
+      <c r="L62">
+        <v>-0.05141637874208412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.05595866556876417</v>
+        <v>0.04872641865523691</v>
       </c>
       <c r="C63">
-        <v>0.04472792214722243</v>
+        <v>0.0291673396690117</v>
       </c>
       <c r="D63">
-        <v>-0.02100429928664626</v>
+        <v>-0.005066458712414342</v>
       </c>
       <c r="E63">
-        <v>-0.01199402311647432</v>
+        <v>-0.0003308025516335989</v>
       </c>
       <c r="F63">
-        <v>0.01065146947684254</v>
+        <v>0.03834836168043212</v>
       </c>
       <c r="G63">
-        <v>-0.03095145023929352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.04343533448330199</v>
+      </c>
+      <c r="H63">
+        <v>0.01317602324359876</v>
+      </c>
+      <c r="I63">
+        <v>-0.06340389674177224</v>
+      </c>
+      <c r="J63">
+        <v>0.01914829963864328</v>
+      </c>
+      <c r="K63">
+        <v>-0.01249598613977694</v>
+      </c>
+      <c r="L63">
+        <v>0.02727246188743356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1024193975571467</v>
+        <v>0.1036690263945702</v>
       </c>
       <c r="C64">
-        <v>0.01225659365816339</v>
+        <v>0.03496583022341464</v>
       </c>
       <c r="D64">
-        <v>-0.03697514370739236</v>
+        <v>0.02481725471326716</v>
       </c>
       <c r="E64">
-        <v>-0.03515589027264816</v>
+        <v>0.03832330884973151</v>
       </c>
       <c r="F64">
-        <v>0.05515532888126764</v>
+        <v>0.07838731604621219</v>
       </c>
       <c r="G64">
-        <v>0.04103482542709711</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.03345083662089725</v>
+      </c>
+      <c r="H64">
+        <v>-0.01986398796258542</v>
+      </c>
+      <c r="I64">
+        <v>-0.03452493651381736</v>
+      </c>
+      <c r="J64">
+        <v>-0.03105989972565956</v>
+      </c>
+      <c r="K64">
+        <v>0.02416482653721891</v>
+      </c>
+      <c r="L64">
+        <v>0.08369054392196015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1291513634544494</v>
+        <v>0.1246213626417412</v>
       </c>
       <c r="C65">
-        <v>0.03650416882700884</v>
+        <v>0.02573782122825734</v>
       </c>
       <c r="D65">
-        <v>-0.07274245923281537</v>
+        <v>0.03654431550664416</v>
       </c>
       <c r="E65">
-        <v>-0.05433841464039876</v>
+        <v>-0.01551554185487067</v>
       </c>
       <c r="F65">
-        <v>0.05252926430300488</v>
+        <v>0.08381676202246507</v>
       </c>
       <c r="G65">
-        <v>0.0627814009285815</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.04442036356466977</v>
+      </c>
+      <c r="H65">
+        <v>-0.1801486847971681</v>
+      </c>
+      <c r="I65">
+        <v>-0.1247536449822235</v>
+      </c>
+      <c r="J65">
+        <v>0.6605023145839071</v>
+      </c>
+      <c r="K65">
+        <v>-0.1728665039052678</v>
+      </c>
+      <c r="L65">
+        <v>-0.07622792017622493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1517177923205424</v>
+        <v>0.1323592921243932</v>
       </c>
       <c r="C66">
-        <v>0.09423782389308469</v>
+        <v>0.1111559570892783</v>
       </c>
       <c r="D66">
-        <v>-0.1020399745084782</v>
+        <v>0.02114794883237166</v>
       </c>
       <c r="E66">
-        <v>-0.03283971027719541</v>
+        <v>0.01284648322620837</v>
       </c>
       <c r="F66">
-        <v>0.01852868244656869</v>
+        <v>0.0984740299194489</v>
       </c>
       <c r="G66">
-        <v>-0.01347351221304127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.07179667580185189</v>
+      </c>
+      <c r="H66">
+        <v>0.03552635704181858</v>
+      </c>
+      <c r="I66">
+        <v>-0.08129430075619393</v>
+      </c>
+      <c r="J66">
+        <v>-0.20848825360721</v>
+      </c>
+      <c r="K66">
+        <v>0.08191560061250108</v>
+      </c>
+      <c r="L66">
+        <v>0.1248935087081795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.08949359103683036</v>
+        <v>0.09197758851113964</v>
       </c>
       <c r="C67">
-        <v>0.04072306723401371</v>
+        <v>0.06358971740059353</v>
       </c>
       <c r="D67">
-        <v>-0.0001420355080270603</v>
+        <v>0.007350226665618559</v>
       </c>
       <c r="E67">
-        <v>-0.007159464710081807</v>
+        <v>0.0345631416862055</v>
       </c>
       <c r="F67">
-        <v>0.02736126716169432</v>
+        <v>-0.01201496922381117</v>
       </c>
       <c r="G67">
-        <v>-0.007754609392380179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.006161247421917431</v>
+      </c>
+      <c r="H67">
+        <v>0.007973199046388168</v>
+      </c>
+      <c r="I67">
+        <v>0.1455766985058912</v>
+      </c>
+      <c r="J67">
+        <v>-0.05418583952345518</v>
+      </c>
+      <c r="K67">
+        <v>-0.06948218010208328</v>
+      </c>
+      <c r="L67">
+        <v>-0.01908994471322004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.07053866771881609</v>
+        <v>0.1053064715733589</v>
       </c>
       <c r="C68">
-        <v>-0.2553415237500372</v>
+        <v>-0.273261624194212</v>
       </c>
       <c r="D68">
-        <v>0.05800299843797441</v>
+        <v>-0.0395199751377647</v>
       </c>
       <c r="E68">
-        <v>-0.03479234779660355</v>
+        <v>0.03201403094185204</v>
       </c>
       <c r="F68">
-        <v>0.03549655804911035</v>
+        <v>-0.001228584876214594</v>
       </c>
       <c r="G68">
-        <v>0.007608402073959367</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01000048235250782</v>
+      </c>
+      <c r="H68">
+        <v>0.02536061295400089</v>
+      </c>
+      <c r="I68">
+        <v>-0.02299279449279792</v>
+      </c>
+      <c r="J68">
+        <v>0.06210635807308376</v>
+      </c>
+      <c r="K68">
+        <v>-0.01691484910567337</v>
+      </c>
+      <c r="L68">
+        <v>0.03876397160600342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.05959694704082155</v>
+        <v>0.05008155508915955</v>
       </c>
       <c r="C69">
-        <v>0.02399248643286917</v>
+        <v>0.02613218381437094</v>
       </c>
       <c r="D69">
-        <v>0.0004857938663787834</v>
+        <v>-0.01439622250547442</v>
       </c>
       <c r="E69">
-        <v>-0.01058219991749981</v>
+        <v>-0.005127805697989635</v>
       </c>
       <c r="F69">
-        <v>0.008642203266237339</v>
+        <v>-0.004634970155677179</v>
       </c>
       <c r="G69">
-        <v>-0.06714401992529669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02801348690461083</v>
+      </c>
+      <c r="H69">
+        <v>0.04740421140334364</v>
+      </c>
+      <c r="I69">
+        <v>0.001889088193591952</v>
+      </c>
+      <c r="J69">
+        <v>0.009921761275146502</v>
+      </c>
+      <c r="K69">
+        <v>0.0221007732261222</v>
+      </c>
+      <c r="L69">
+        <v>-0.007936675189750038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.02270275138470497</v>
+        <v>0.04446913107070891</v>
       </c>
       <c r="C70">
-        <v>-0.005191975872755024</v>
+        <v>0.02296922471526303</v>
       </c>
       <c r="D70">
-        <v>-0.0008262939134236102</v>
+        <v>0.02948306515742083</v>
       </c>
       <c r="E70">
-        <v>0.01023298274190914</v>
+        <v>-0.02105132108959131</v>
       </c>
       <c r="F70">
-        <v>0.003213912462504882</v>
+        <v>-0.03284874264051386</v>
       </c>
       <c r="G70">
-        <v>0.07300941290736342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.03530296006271263</v>
+      </c>
+      <c r="H70">
+        <v>-0.02237677213890266</v>
+      </c>
+      <c r="I70">
+        <v>0.02437252423245688</v>
+      </c>
+      <c r="J70">
+        <v>-0.05843154791406976</v>
+      </c>
+      <c r="K70">
+        <v>-0.1157454910263074</v>
+      </c>
+      <c r="L70">
+        <v>0.09579458069875783</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.07428496328331137</v>
+        <v>0.1179417277898945</v>
       </c>
       <c r="C71">
-        <v>-0.2703301021491716</v>
+        <v>-0.2847276483824203</v>
       </c>
       <c r="D71">
-        <v>0.05553191590800981</v>
+        <v>-0.0201447724141548</v>
       </c>
       <c r="E71">
-        <v>-0.06808343356189313</v>
+        <v>0.04825331346892366</v>
       </c>
       <c r="F71">
-        <v>0.02067848457112875</v>
+        <v>0.00636742896326412</v>
       </c>
       <c r="G71">
-        <v>0.02557958123337733</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.003588073592229508</v>
+      </c>
+      <c r="H71">
+        <v>0.01179780698099711</v>
+      </c>
+      <c r="I71">
+        <v>-0.02060876027364281</v>
+      </c>
+      <c r="J71">
+        <v>0.009132425193819748</v>
+      </c>
+      <c r="K71">
+        <v>-0.008951155459599456</v>
+      </c>
+      <c r="L71">
+        <v>-0.004722429611808555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1628521027045493</v>
+        <v>0.1407944404781193</v>
       </c>
       <c r="C72">
-        <v>-0.03519648875373207</v>
+        <v>0.01924393241869764</v>
       </c>
       <c r="D72">
-        <v>-0.09598941205715489</v>
+        <v>-0.05429109009679429</v>
       </c>
       <c r="E72">
-        <v>0.2277641018832451</v>
+        <v>-0.1739024016602514</v>
       </c>
       <c r="F72">
-        <v>0.03833086455573993</v>
+        <v>0.09158368294122657</v>
       </c>
       <c r="G72">
-        <v>-0.05766421458921746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08813616319610111</v>
+      </c>
+      <c r="H72">
+        <v>0.01007590287456545</v>
+      </c>
+      <c r="I72">
+        <v>0.04304865280833905</v>
+      </c>
+      <c r="J72">
+        <v>0.1253715519322295</v>
+      </c>
+      <c r="K72">
+        <v>0.003095324391416467</v>
+      </c>
+      <c r="L72">
+        <v>-0.08058312778066537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2555686841269219</v>
+        <v>0.2384260133636199</v>
       </c>
       <c r="C73">
-        <v>0.08563160802101381</v>
+        <v>0.1270582474063887</v>
       </c>
       <c r="D73">
-        <v>-0.2017463697795853</v>
+        <v>0.259848907869721</v>
       </c>
       <c r="E73">
-        <v>-0.1379336965704322</v>
+        <v>-0.03757390454968916</v>
       </c>
       <c r="F73">
-        <v>-0.05983236895247799</v>
+        <v>-0.1328963104136724</v>
       </c>
       <c r="G73">
-        <v>0.1607756928860241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2800680857488583</v>
+      </c>
+      <c r="H73">
+        <v>-0.2922895566331562</v>
+      </c>
+      <c r="I73">
+        <v>0.1159308212425283</v>
+      </c>
+      <c r="J73">
+        <v>-0.01145775021583556</v>
+      </c>
+      <c r="K73">
+        <v>0.4854646750768595</v>
+      </c>
+      <c r="L73">
+        <v>-0.1872244155256101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.08555379399377759</v>
+        <v>0.08803314614125819</v>
       </c>
       <c r="C74">
-        <v>0.001979352948293568</v>
+        <v>0.05274461587855347</v>
       </c>
       <c r="D74">
-        <v>-0.06333585398989301</v>
+        <v>0.03290115516206182</v>
       </c>
       <c r="E74">
-        <v>-0.01117191489544043</v>
+        <v>-0.02362988132329998</v>
       </c>
       <c r="F74">
-        <v>0.007117878727459538</v>
+        <v>0.02305201501755377</v>
       </c>
       <c r="G74">
-        <v>-0.05596899293365706</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.03420178894649664</v>
+      </c>
+      <c r="H74">
+        <v>0.1436865476931059</v>
+      </c>
+      <c r="I74">
+        <v>0.01539715005344138</v>
+      </c>
+      <c r="J74">
+        <v>0.02302169279983851</v>
+      </c>
+      <c r="K74">
+        <v>0.06036198253017615</v>
+      </c>
+      <c r="L74">
+        <v>-0.02789810694586744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.1110204898674878</v>
+        <v>0.09533235724993937</v>
       </c>
       <c r="C75">
-        <v>0.006617004182363856</v>
+        <v>0.04382659407117347</v>
       </c>
       <c r="D75">
-        <v>0.01670788654833288</v>
+        <v>-0.006075404429159143</v>
       </c>
       <c r="E75">
-        <v>-0.01870873195166082</v>
+        <v>-0.01325506506810426</v>
       </c>
       <c r="F75">
-        <v>-0.04569170891852094</v>
+        <v>-0.06690174491708704</v>
       </c>
       <c r="G75">
-        <v>-0.09939710532300663</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01004094023820412</v>
+      </c>
+      <c r="H75">
+        <v>0.1277386915832855</v>
+      </c>
+      <c r="I75">
+        <v>0.03951642020931008</v>
+      </c>
+      <c r="J75">
+        <v>0.03206728694565585</v>
+      </c>
+      <c r="K75">
+        <v>0.001490247504362611</v>
+      </c>
+      <c r="L75">
+        <v>-0.03990101133439514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1297918358328717</v>
+        <v>0.1116321919762034</v>
       </c>
       <c r="C76">
-        <v>0.001201735830717407</v>
+        <v>0.0621483919436683</v>
       </c>
       <c r="D76">
-        <v>-0.06224155211970277</v>
+        <v>0.04975792677072361</v>
       </c>
       <c r="E76">
-        <v>-0.01923692131425972</v>
+        <v>-0.01523180664817004</v>
       </c>
       <c r="F76">
-        <v>-0.006859771366066542</v>
+        <v>0.00256706261575607</v>
       </c>
       <c r="G76">
-        <v>-0.160573130696391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02563965092925112</v>
+      </c>
+      <c r="H76">
+        <v>0.2279888971947373</v>
+      </c>
+      <c r="I76">
+        <v>0.06884834027972823</v>
+      </c>
+      <c r="J76">
+        <v>0.04612906448560015</v>
+      </c>
+      <c r="K76">
+        <v>0.009221548778005056</v>
+      </c>
+      <c r="L76">
+        <v>-0.02376457783706326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.1056260776485831</v>
+        <v>0.07934458369710454</v>
       </c>
       <c r="C77">
-        <v>0.03356937354883733</v>
+        <v>0.02078526042659846</v>
       </c>
       <c r="D77">
-        <v>0.0842146383477653</v>
+        <v>-0.07586188217738699</v>
       </c>
       <c r="E77">
-        <v>0.002814998088023362</v>
+        <v>0.1164114388577091</v>
       </c>
       <c r="F77">
-        <v>0.3040405251397277</v>
+        <v>0.092450303085146</v>
       </c>
       <c r="G77">
-        <v>-0.4365600403067974</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.6475881439972691</v>
+      </c>
+      <c r="H77">
+        <v>-0.3011982719200219</v>
+      </c>
+      <c r="I77">
+        <v>0.5064098787329144</v>
+      </c>
+      <c r="J77">
+        <v>-0.03548115047332841</v>
+      </c>
+      <c r="K77">
+        <v>0.1123525353845943</v>
+      </c>
+      <c r="L77">
+        <v>-0.04343363975579385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1229345740551083</v>
+        <v>0.1621327618168773</v>
       </c>
       <c r="C78">
-        <v>0.07283207313367963</v>
+        <v>0.08744263963439962</v>
       </c>
       <c r="D78">
-        <v>-0.04048256447553934</v>
+        <v>-0.04237702410035846</v>
       </c>
       <c r="E78">
-        <v>-0.02471493292628227</v>
+        <v>0.1422542946372817</v>
       </c>
       <c r="F78">
-        <v>0.1098871587863257</v>
+        <v>0.162617882636742</v>
       </c>
       <c r="G78">
-        <v>0.08455706675479663</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.03267753637327649</v>
+      </c>
+      <c r="H78">
+        <v>-0.08755318934309028</v>
+      </c>
+      <c r="I78">
+        <v>-0.1395938822007354</v>
+      </c>
+      <c r="J78">
+        <v>-0.1525211627976118</v>
+      </c>
+      <c r="K78">
+        <v>-0.2083727990737633</v>
+      </c>
+      <c r="L78">
+        <v>-0.4566348703989074</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1384882493346555</v>
+        <v>0.1364446177991813</v>
       </c>
       <c r="C79">
-        <v>0.01937412605605392</v>
+        <v>0.05815927811188384</v>
       </c>
       <c r="D79">
-        <v>-0.08311947526447827</v>
+        <v>0.03979549120643076</v>
       </c>
       <c r="E79">
-        <v>-0.01094094769325925</v>
+        <v>-0.01853754746951007</v>
       </c>
       <c r="F79">
-        <v>-0.0470285439697558</v>
+        <v>0.03087249752448514</v>
       </c>
       <c r="G79">
-        <v>-0.1563407883943594</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.01012791401993933</v>
+      </c>
+      <c r="H79">
+        <v>0.1859652842569942</v>
+      </c>
+      <c r="I79">
+        <v>0.08570800459963075</v>
+      </c>
+      <c r="J79">
+        <v>0.05825331157972645</v>
+      </c>
+      <c r="K79">
+        <v>-0.02187087109905763</v>
+      </c>
+      <c r="L79">
+        <v>-0.02916796229850145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.04221523072579417</v>
+        <v>0.04607376063543715</v>
       </c>
       <c r="C80">
-        <v>0.03660298733406654</v>
+        <v>0.02185990129213296</v>
       </c>
       <c r="D80">
-        <v>-0.01189712318367149</v>
+        <v>0.05629505103141068</v>
       </c>
       <c r="E80">
-        <v>-0.005896423307090905</v>
+        <v>-0.02237034088687151</v>
       </c>
       <c r="F80">
-        <v>0.01404298613210296</v>
+        <v>-0.0002988141226515649</v>
       </c>
       <c r="G80">
-        <v>-0.01031927507248212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02607417332469497</v>
+      </c>
+      <c r="H80">
+        <v>-0.01772811640013208</v>
+      </c>
+      <c r="I80">
+        <v>-0.09767059256817132</v>
+      </c>
+      <c r="J80">
+        <v>-0.03319740780900391</v>
+      </c>
+      <c r="K80">
+        <v>-0.01403088273302357</v>
+      </c>
+      <c r="L80">
+        <v>-0.0025221921710103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1248949071579412</v>
+        <v>0.1255637333659295</v>
       </c>
       <c r="C81">
-        <v>0.02363866287402622</v>
+        <v>0.04516592362002249</v>
       </c>
       <c r="D81">
-        <v>-0.06666043036986642</v>
+        <v>0.02989896659262941</v>
       </c>
       <c r="E81">
-        <v>-0.02795736200475571</v>
+        <v>-0.009079489127145556</v>
       </c>
       <c r="F81">
-        <v>-0.02266468240791707</v>
+        <v>0.02728995589825389</v>
       </c>
       <c r="G81">
-        <v>-0.09596030258804199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.003628973357805281</v>
+      </c>
+      <c r="H81">
+        <v>0.1727036536866209</v>
+      </c>
+      <c r="I81">
+        <v>0.04071882057897271</v>
+      </c>
+      <c r="J81">
+        <v>-0.001852906032107448</v>
+      </c>
+      <c r="K81">
+        <v>0.03325709790488069</v>
+      </c>
+      <c r="L81">
+        <v>0.04008381494928806</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1202440702934893</v>
+        <v>0.1203178480875082</v>
       </c>
       <c r="C82">
-        <v>0.0242998393274758</v>
+        <v>0.04695915109866059</v>
       </c>
       <c r="D82">
-        <v>-0.04357580738822901</v>
+        <v>0.03526960080544314</v>
       </c>
       <c r="E82">
-        <v>-0.04576180237467068</v>
+        <v>-0.02649019793138864</v>
       </c>
       <c r="F82">
-        <v>-0.08071821063522933</v>
+        <v>-0.02141750724444776</v>
       </c>
       <c r="G82">
-        <v>-0.2264461147767788</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.01589144471843738</v>
+      </c>
+      <c r="H82">
+        <v>0.2664370766101105</v>
+      </c>
+      <c r="I82">
+        <v>0.06569516403975821</v>
+      </c>
+      <c r="J82">
+        <v>-0.03493515757727449</v>
+      </c>
+      <c r="K82">
+        <v>0.002291956794239491</v>
+      </c>
+      <c r="L82">
+        <v>0.02148816381028123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.05862038306168122</v>
+        <v>0.07731736990386086</v>
       </c>
       <c r="C83">
-        <v>0.02352845464865812</v>
+        <v>0.04533309626594739</v>
       </c>
       <c r="D83">
-        <v>0.07962174258514385</v>
+        <v>0.001287444323736539</v>
       </c>
       <c r="E83">
-        <v>-0.01811685068154156</v>
+        <v>0.01163900659128642</v>
       </c>
       <c r="F83">
-        <v>-0.08262216129993546</v>
+        <v>-0.09820874710469356</v>
       </c>
       <c r="G83">
-        <v>0.09038282310635272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.02890287943882472</v>
+      </c>
+      <c r="H83">
+        <v>-0.03530933779820045</v>
+      </c>
+      <c r="I83">
+        <v>-0.06719492971313644</v>
+      </c>
+      <c r="J83">
+        <v>-0.04195849675555071</v>
+      </c>
+      <c r="K83">
+        <v>-0.05256529358611507</v>
+      </c>
+      <c r="L83">
+        <v>-0.003911420139109851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05799863701618326</v>
+        <v>0.04275142464117494</v>
       </c>
       <c r="C84">
-        <v>0.02088015672009748</v>
+        <v>-0.02071882377082325</v>
       </c>
       <c r="D84">
-        <v>-0.02200879278158415</v>
+        <v>-0.03854179164681563</v>
       </c>
       <c r="E84">
-        <v>0.01430417072209113</v>
+        <v>-0.002946056243332528</v>
       </c>
       <c r="F84">
-        <v>0.0004793813691549711</v>
+        <v>0.02607384584842625</v>
       </c>
       <c r="G84">
-        <v>0.08782761432472681</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.0878682206075468</v>
+      </c>
+      <c r="H84">
+        <v>-0.1477777429113601</v>
+      </c>
+      <c r="I84">
+        <v>-0.1841163097385051</v>
+      </c>
+      <c r="J84">
+        <v>-0.2218440700969617</v>
+      </c>
+      <c r="K84">
+        <v>-0.2603644707905133</v>
+      </c>
+      <c r="L84">
+        <v>-0.2309042395518092</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09726004970544497</v>
+        <v>0.1131085790274207</v>
       </c>
       <c r="C85">
-        <v>0.04434272136192779</v>
+        <v>0.04926158534945835</v>
       </c>
       <c r="D85">
-        <v>-0.0177218729403842</v>
+        <v>0.04153374181770775</v>
       </c>
       <c r="E85">
-        <v>-0.05259921949566993</v>
+        <v>0.02233466611454114</v>
       </c>
       <c r="F85">
-        <v>-0.01553025190400049</v>
+        <v>-0.006881427432949136</v>
       </c>
       <c r="G85">
-        <v>-0.1326370607029935</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01084791007718066</v>
+      </c>
+      <c r="H85">
+        <v>0.1859407768989549</v>
+      </c>
+      <c r="I85">
+        <v>0.05163159134648224</v>
+      </c>
+      <c r="J85">
+        <v>0.04682809550197604</v>
+      </c>
+      <c r="K85">
+        <v>-0.0180427815826393</v>
+      </c>
+      <c r="L85">
+        <v>-0.04068396428015762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06536459684440737</v>
+        <v>0.07148516658738432</v>
       </c>
       <c r="C86">
-        <v>0.0746881596045894</v>
+        <v>0.02328067848920536</v>
       </c>
       <c r="D86">
-        <v>-0.006044777533765739</v>
+        <v>-0.0214387131775342</v>
       </c>
       <c r="E86">
-        <v>-0.008782377418780778</v>
+        <v>0.04627981514556205</v>
       </c>
       <c r="F86">
-        <v>0.02522196387446847</v>
+        <v>0.0255495679305299</v>
       </c>
       <c r="G86">
-        <v>-0.003166565571958844</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.02092207948667816</v>
+      </c>
+      <c r="H86">
+        <v>-0.08364178146530105</v>
+      </c>
+      <c r="I86">
+        <v>-0.07301966371298255</v>
+      </c>
+      <c r="J86">
+        <v>-0.2072313831376834</v>
+      </c>
+      <c r="K86">
+        <v>-0.3031818705420404</v>
+      </c>
+      <c r="L86">
+        <v>-0.2842925438975588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1032190142161512</v>
+        <v>0.1176700993207056</v>
       </c>
       <c r="C87">
-        <v>0.06160179883910362</v>
+        <v>0.06383697095096662</v>
       </c>
       <c r="D87">
-        <v>-0.03953673477321773</v>
+        <v>-0.01251247096755818</v>
       </c>
       <c r="E87">
-        <v>-0.01577373832051686</v>
+        <v>0.04977366817275899</v>
       </c>
       <c r="F87">
-        <v>0.1856458087803859</v>
+        <v>0.1456265242047069</v>
       </c>
       <c r="G87">
-        <v>-0.08708874138187117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.1556292935659249</v>
+      </c>
+      <c r="H87">
+        <v>-0.1432803503775218</v>
+      </c>
+      <c r="I87">
+        <v>0.07451041737918412</v>
+      </c>
+      <c r="J87">
+        <v>-0.0673964362323814</v>
+      </c>
+      <c r="K87">
+        <v>-0.008644531949254767</v>
+      </c>
+      <c r="L87">
+        <v>0.06437105651501933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.05060074858166748</v>
+        <v>0.06044615816915955</v>
       </c>
       <c r="C88">
-        <v>0.03178999717483928</v>
+        <v>0.04774142430158716</v>
       </c>
       <c r="D88">
-        <v>-0.01869302425453256</v>
+        <v>0.03743539848506984</v>
       </c>
       <c r="E88">
-        <v>-0.01196033245673117</v>
+        <v>-0.0004926093674375747</v>
       </c>
       <c r="F88">
-        <v>0.0050312756098571</v>
+        <v>0.01990713711106878</v>
       </c>
       <c r="G88">
-        <v>0.01465729449040984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0234614962677411</v>
+      </c>
+      <c r="H88">
+        <v>0.01921543199475919</v>
+      </c>
+      <c r="I88">
+        <v>-0.05206275457430112</v>
+      </c>
+      <c r="J88">
+        <v>-0.03514458846029962</v>
+      </c>
+      <c r="K88">
+        <v>0.01524255041571646</v>
+      </c>
+      <c r="L88">
+        <v>0.02515360833415867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1254403765727752</v>
+        <v>0.1966851135143684</v>
       </c>
       <c r="C89">
-        <v>-0.3069240361735321</v>
+        <v>-0.3634975967735861</v>
       </c>
       <c r="D89">
-        <v>0.07752040058608037</v>
+        <v>0.002181409808072148</v>
       </c>
       <c r="E89">
-        <v>-0.1168808463138713</v>
+        <v>0.09983371850225062</v>
       </c>
       <c r="F89">
-        <v>0.06844755092612806</v>
+        <v>-0.01823282110135856</v>
       </c>
       <c r="G89">
-        <v>0.03348983316659306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.004756293757662571</v>
+      </c>
+      <c r="H89">
+        <v>0.01365754159192739</v>
+      </c>
+      <c r="I89">
+        <v>-0.04362398482946112</v>
+      </c>
+      <c r="J89">
+        <v>-0.04337467259855762</v>
+      </c>
+      <c r="K89">
+        <v>0.07941120896035186</v>
+      </c>
+      <c r="L89">
+        <v>0.04412683290340032</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.1011110925639062</v>
+        <v>0.1350628960146024</v>
       </c>
       <c r="C90">
-        <v>-0.2693185011841124</v>
+        <v>-0.2692507936104551</v>
       </c>
       <c r="D90">
-        <v>0.06560130197071959</v>
+        <v>-0.01860391133100871</v>
       </c>
       <c r="E90">
-        <v>-0.05152307513247316</v>
+        <v>0.03944900512627489</v>
       </c>
       <c r="F90">
-        <v>0.07325372823805579</v>
+        <v>0.002093419821959643</v>
       </c>
       <c r="G90">
-        <v>0.04271435709139507</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02418291622565361</v>
+      </c>
+      <c r="H90">
+        <v>-0.02830881492381472</v>
+      </c>
+      <c r="I90">
+        <v>-0.02316742661220902</v>
+      </c>
+      <c r="J90">
+        <v>-0.01079737916779832</v>
+      </c>
+      <c r="K90">
+        <v>0.02937765312748283</v>
+      </c>
+      <c r="L90">
+        <v>0.02646778462958657</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.09063422468678572</v>
+        <v>0.07958665474091231</v>
       </c>
       <c r="C91">
-        <v>0.01457543018786805</v>
+        <v>0.04708403769945976</v>
       </c>
       <c r="D91">
-        <v>-0.01241528742846336</v>
+        <v>0.004259385468238952</v>
       </c>
       <c r="E91">
-        <v>-0.008946935361580461</v>
+        <v>-0.004161330293878691</v>
       </c>
       <c r="F91">
-        <v>-0.01164033455953813</v>
+        <v>-0.03302720386027069</v>
       </c>
       <c r="G91">
-        <v>-0.0648953916128267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01144869993213326</v>
+      </c>
+      <c r="H91">
+        <v>0.09612819474443066</v>
+      </c>
+      <c r="I91">
+        <v>0.03287753822987016</v>
+      </c>
+      <c r="J91">
+        <v>0.02769960466227226</v>
+      </c>
+      <c r="K91">
+        <v>0.0312830034009948</v>
+      </c>
+      <c r="L91">
+        <v>-0.02776952757787963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.08704522059466081</v>
+        <v>0.1382018905965721</v>
       </c>
       <c r="C92">
-        <v>-0.3357627138388261</v>
+        <v>-0.3226282354838736</v>
       </c>
       <c r="D92">
-        <v>0.03932395336584386</v>
+        <v>-0.01079313160103136</v>
       </c>
       <c r="E92">
-        <v>-0.08723398007157428</v>
+        <v>0.05207308001000449</v>
       </c>
       <c r="F92">
-        <v>0.02268270003372501</v>
+        <v>0.01443123667915141</v>
       </c>
       <c r="G92">
-        <v>0.07302411592030272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02707638158260048</v>
+      </c>
+      <c r="H92">
+        <v>0.03791417305196576</v>
+      </c>
+      <c r="I92">
+        <v>-0.03395635785598874</v>
+      </c>
+      <c r="J92">
+        <v>-0.02468521414990768</v>
+      </c>
+      <c r="K92">
+        <v>0.03730017665705134</v>
+      </c>
+      <c r="L92">
+        <v>0.006882632670909616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.08505596344403124</v>
+        <v>0.1387511509902122</v>
       </c>
       <c r="C93">
-        <v>-0.2713904291459469</v>
+        <v>-0.3032917918570597</v>
       </c>
       <c r="D93">
-        <v>0.02658186646571369</v>
+        <v>-0.0005411880692868449</v>
       </c>
       <c r="E93">
-        <v>-0.04868438469167171</v>
+        <v>0.01938151224131054</v>
       </c>
       <c r="F93">
-        <v>0.03200992642220959</v>
+        <v>0.004983404264236914</v>
       </c>
       <c r="G93">
-        <v>0.04687453088763475</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.01088505935286042</v>
+      </c>
+      <c r="H93">
+        <v>-0.01613162962355064</v>
+      </c>
+      <c r="I93">
+        <v>-0.006515551263395333</v>
+      </c>
+      <c r="J93">
+        <v>-0.007331141736369139</v>
+      </c>
+      <c r="K93">
+        <v>-0.0310559082049631</v>
+      </c>
+      <c r="L93">
+        <v>0.02603581863922346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.1034944729304769</v>
+        <v>0.109410223216697</v>
       </c>
       <c r="C94">
-        <v>0.06243699940834449</v>
+        <v>0.07376063886313804</v>
       </c>
       <c r="D94">
-        <v>-0.008316869494130189</v>
+        <v>0.01180767506339053</v>
       </c>
       <c r="E94">
-        <v>-0.02601804044203726</v>
+        <v>0.01877607958939362</v>
       </c>
       <c r="F94">
-        <v>-0.01404475441656685</v>
+        <v>-0.04423798598815436</v>
       </c>
       <c r="G94">
-        <v>-0.09876406086519159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.03845821343415447</v>
+      </c>
+      <c r="H94">
+        <v>0.1271174780412053</v>
+      </c>
+      <c r="I94">
+        <v>0.01747373344640262</v>
+      </c>
+      <c r="J94">
+        <v>0.03988906342301774</v>
+      </c>
+      <c r="K94">
+        <v>0.01734107141733569</v>
+      </c>
+      <c r="L94">
+        <v>-0.02578601868278161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1116324399870033</v>
+        <v>0.1323612903819089</v>
       </c>
       <c r="C95">
-        <v>0.09505216059556292</v>
+        <v>0.06418255797413508</v>
       </c>
       <c r="D95">
-        <v>-0.07223973498349576</v>
+        <v>0.02160442737635716</v>
       </c>
       <c r="E95">
-        <v>-0.08049808717068216</v>
+        <v>0.07093121412707641</v>
       </c>
       <c r="F95">
-        <v>0.01018919620708219</v>
+        <v>0.07472906708696858</v>
       </c>
       <c r="G95">
-        <v>0.0338358952169661</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.006994401480682051</v>
+      </c>
+      <c r="H95">
+        <v>-0.1653816990260629</v>
+      </c>
+      <c r="I95">
+        <v>-0.09977266270528359</v>
+      </c>
+      <c r="J95">
+        <v>-0.03523356049377449</v>
+      </c>
+      <c r="K95">
+        <v>0.01840340114195324</v>
+      </c>
+      <c r="L95">
+        <v>-0.04050869211918101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2815450388308485</v>
+        <v>0.1846678165337099</v>
       </c>
       <c r="C97">
-        <v>-0.1334510787249313</v>
+        <v>-0.01050700879248519</v>
       </c>
       <c r="D97">
-        <v>-0.05638506286529187</v>
+        <v>-0.4949861062727588</v>
       </c>
       <c r="E97">
-        <v>0.8781882110666781</v>
+        <v>-0.7871969165717152</v>
       </c>
       <c r="F97">
-        <v>-0.03859667911316106</v>
+        <v>0.1154391074664377</v>
       </c>
       <c r="G97">
-        <v>0.09978849587568274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01706373543352382</v>
+      </c>
+      <c r="H97">
+        <v>-0.07470536761740182</v>
+      </c>
+      <c r="I97">
+        <v>-0.05539972859561774</v>
+      </c>
+      <c r="J97">
+        <v>-0.06322471907393955</v>
+      </c>
+      <c r="K97">
+        <v>0.07618164363825035</v>
+      </c>
+      <c r="L97">
+        <v>-0.007547171164178679</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.2805457116421333</v>
+        <v>0.2728900731838146</v>
       </c>
       <c r="C98">
-        <v>0.08147336836653636</v>
+        <v>0.1164995896117026</v>
       </c>
       <c r="D98">
-        <v>-0.01361949129233533</v>
+        <v>0.1588913600554924</v>
       </c>
       <c r="E98">
-        <v>-0.1197281856716933</v>
+        <v>-0.1163983451456211</v>
       </c>
       <c r="F98">
-        <v>-0.4982195810134152</v>
+        <v>-0.338176663143349</v>
       </c>
       <c r="G98">
-        <v>0.4025883473133303</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.203215321117109</v>
+      </c>
+      <c r="H98">
+        <v>-0.2704913610313292</v>
+      </c>
+      <c r="I98">
+        <v>0.1363619566392213</v>
+      </c>
+      <c r="J98">
+        <v>-0.1088039001814178</v>
+      </c>
+      <c r="K98">
+        <v>-0.3817109030528273</v>
+      </c>
+      <c r="L98">
+        <v>0.4554329594084293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.2471896062503425</v>
+        <v>0.1451812994115433</v>
       </c>
       <c r="C99">
-        <v>0.1705560844586285</v>
+        <v>0.1093478406595505</v>
       </c>
       <c r="D99">
-        <v>0.7842798287689136</v>
+        <v>-0.2962544655817005</v>
       </c>
       <c r="E99">
-        <v>0.02348881950352392</v>
+        <v>0.1115976647145862</v>
       </c>
       <c r="F99">
-        <v>-0.3187855207049336</v>
+        <v>-0.7409940270166507</v>
       </c>
       <c r="G99">
-        <v>-0.2220333665248603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.2676860439690518</v>
+      </c>
+      <c r="H99">
+        <v>0.09014448976857967</v>
+      </c>
+      <c r="I99">
+        <v>-0.06271831519471506</v>
+      </c>
+      <c r="J99">
+        <v>-0.0146560107034443</v>
+      </c>
+      <c r="K99">
+        <v>-0.06173460112973557</v>
+      </c>
+      <c r="L99">
+        <v>-0.172404958240409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,33 +4500,63 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.04825803330980193</v>
+        <v>0.04710370287365172</v>
       </c>
       <c r="C101">
-        <v>0.00320411258590665</v>
+        <v>0.0187382481138509</v>
       </c>
       <c r="D101">
-        <v>-0.01908975746499717</v>
+        <v>0.007639020256962181</v>
       </c>
       <c r="E101">
-        <v>-0.01233699143456837</v>
+        <v>0.02272479011196908</v>
       </c>
       <c r="F101">
-        <v>0.03655814079011808</v>
+        <v>0.04296566405696632</v>
       </c>
       <c r="G101">
-        <v>0.01041088993831068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.023109201659622</v>
+      </c>
+      <c r="H101">
+        <v>0.04607552085425663</v>
+      </c>
+      <c r="I101">
+        <v>-0.04909512669109501</v>
+      </c>
+      <c r="J101">
+        <v>0.0002965135415013144</v>
+      </c>
+      <c r="K101">
+        <v>-0.02750785166722241</v>
+      </c>
+      <c r="L101">
+        <v>0.01519313549877724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
